--- a/Output/Relevent_Results.xlsx
+++ b/Output/Relevent_Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,25 +11,20 @@
     <sheet name="rice" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -43,27 +38,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -76,12 +56,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -463,7 +440,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -479,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,299 +465,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>From</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>From_state</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>To_state</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Values</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BXC</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PNU</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Gujarat</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BHT</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BBU</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MBY</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>HMH</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Rajasthan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ENB</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>HMH</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Rajasthan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DAA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>FFSB</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Bihar</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TKMG</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>FNSG</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Maharashtra</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BTC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Maharashtra</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MGG</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>FCGD</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Gujarat</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Wheat</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,167 +516,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>From</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>From_state</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>To</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>To_state</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Commodity</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Values</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FCIG</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Andhra Pradesh</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>RPM</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Tamil Nadu</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>RSD</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Chattisgarh</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BIDR</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BHT</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>FCSH</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GDB</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Punjab</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PKYN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>UP</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Rice</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
